--- a/fhir-terminology/Subsets_Conectathon_Test_Data.xlsx
+++ b/fhir-terminology/Subsets_Conectathon_Test_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="536">
   <si>
     <t>Local Code System</t>
   </si>
@@ -668,6 +668,9 @@
     <t>Vacuna contra SARS - CoV-2</t>
   </si>
   <si>
+    <t>L41</t>
+  </si>
+  <si>
     <t>Y2</t>
   </si>
   <si>
@@ -680,6 +683,9 @@
     <t>Vacuna antituberculosa (BCG)</t>
   </si>
   <si>
+    <t>L42</t>
+  </si>
+  <si>
     <t>Y3</t>
   </si>
   <si>
@@ -692,6 +698,9 @@
     <t>Vacuna contra tétanos, difteria y tos ferina</t>
   </si>
   <si>
+    <t>L43</t>
+  </si>
+  <si>
     <t>Y4</t>
   </si>
   <si>
@@ -704,6 +713,9 @@
     <t>Vacuna contra fiebre amarilla</t>
   </si>
   <si>
+    <t>L44</t>
+  </si>
+  <si>
     <t>Y5</t>
   </si>
   <si>
@@ -716,6 +728,9 @@
     <t>Vacuna contra Hepatits B</t>
   </si>
   <si>
+    <t>L45</t>
+  </si>
+  <si>
     <t>Y6</t>
   </si>
   <si>
@@ -728,6 +743,9 @@
     <t>Vacuna contra sarampión, paperas y rubéola</t>
   </si>
   <si>
+    <t>L46</t>
+  </si>
+  <si>
     <t>Y7</t>
   </si>
   <si>
@@ -740,6 +758,9 @@
     <t>Vacuna contra el virus del papiloma humano</t>
   </si>
   <si>
+    <t>L47</t>
+  </si>
+  <si>
     <t>Y8</t>
   </si>
   <si>
@@ -752,6 +773,9 @@
     <t>Vacuna antipoliomelítica oral (VOP)</t>
   </si>
   <si>
+    <t>L48</t>
+  </si>
+  <si>
     <t>Y9</t>
   </si>
   <si>
@@ -764,6 +788,9 @@
     <t xml:space="preserve">Vacuna contra influenza </t>
   </si>
   <si>
+    <t>L49</t>
+  </si>
+  <si>
     <t>Y10</t>
   </si>
   <si>
@@ -776,6 +803,9 @@
     <t>Vacuna antirrábica</t>
   </si>
   <si>
+    <t>L50</t>
+  </si>
+  <si>
     <t>Y11</t>
   </si>
   <si>
@@ -788,6 +818,9 @@
     <t xml:space="preserve">Vacuna antineumocóccica </t>
   </si>
   <si>
+    <t>L51</t>
+  </si>
+  <si>
     <t>Y12</t>
   </si>
   <si>
@@ -800,7 +833,7 @@
     <t>Vacuna antipoliomelítica inactivada (VIP)</t>
   </si>
   <si>
-    <t>L41</t>
+    <t>L52</t>
   </si>
   <si>
     <t>Y13</t>
@@ -815,7 +848,7 @@
     <t>Vacuna antimeningocócica</t>
   </si>
   <si>
-    <t>L42</t>
+    <t>L53</t>
   </si>
   <si>
     <t>Y14</t>
@@ -830,7 +863,7 @@
     <t>Vacuna contra hepatitis A</t>
   </si>
   <si>
-    <t>L43</t>
+    <t>L54</t>
   </si>
   <si>
     <t>Y15</t>
@@ -845,7 +878,7 @@
     <t>Vacuna contra la fiebre tifoidea</t>
   </si>
   <si>
-    <t>L44</t>
+    <t>L55</t>
   </si>
   <si>
     <t>Y16</t>
@@ -860,7 +893,7 @@
     <t xml:space="preserve">Vacuna contra la varicela </t>
   </si>
   <si>
-    <t>L45</t>
+    <t>L56</t>
   </si>
   <si>
     <t>Y17</t>
@@ -881,6 +914,9 @@
     <t>Alergia a alimentos</t>
   </si>
   <si>
+    <t>L61</t>
+  </si>
+  <si>
     <t>Allergy to food (finding)</t>
   </si>
   <si>
@@ -890,6 +926,9 @@
     <t>Alergia a amoxicilina</t>
   </si>
   <si>
+    <t>L62</t>
+  </si>
+  <si>
     <t>Allergy to amoxicillin (finding)</t>
   </si>
   <si>
@@ -899,6 +938,9 @@
     <t>Alergia a analgesicos no esteroideos</t>
   </si>
   <si>
+    <t>L63</t>
+  </si>
+  <si>
     <t>Analgesics and non-steroidal anti-inflammatory drug allergy (navigational concept)</t>
   </si>
   <si>
@@ -908,6 +950,9 @@
     <t>Alergia al ibuprofeno</t>
   </si>
   <si>
+    <t>L64</t>
+  </si>
+  <si>
     <t>Allergy to ibuprofen (finding)</t>
   </si>
   <si>
@@ -917,6 +962,9 @@
     <t>Alergia al látex</t>
   </si>
   <si>
+    <t>L65</t>
+  </si>
+  <si>
     <t>Allergy to Hevea brasiliensis latex protein (finding)</t>
   </si>
   <si>
@@ -926,6 +974,9 @@
     <t>Alergia a picadura de insectos</t>
   </si>
   <si>
+    <t>L66</t>
+  </si>
+  <si>
     <t>Allergy to insect venom (finding)</t>
   </si>
   <si>
@@ -935,7 +986,7 @@
     <t>Alergia al ácido acetilsalicílico</t>
   </si>
   <si>
-    <t>L46</t>
+    <t>L67</t>
   </si>
   <si>
     <t>Allergy to aspirin (finding)</t>
@@ -947,7 +998,7 @@
     <t>Alergia a cefalosporinas</t>
   </si>
   <si>
-    <t>L47</t>
+    <t>L68</t>
   </si>
   <si>
     <t>Allergy to cephalosporin (finding)</t>
@@ -959,7 +1010,7 @@
     <t>Alergia a sulfonamidas</t>
   </si>
   <si>
-    <t>L48</t>
+    <t>L69</t>
   </si>
   <si>
     <t>Allergy to sulfonamide (finding)</t>
@@ -971,7 +1022,7 @@
     <t>Alergia a quinolonas</t>
   </si>
   <si>
-    <t>L49</t>
+    <t>L70</t>
   </si>
   <si>
     <t>Allergy to fluoroquinolone (finding)</t>
@@ -983,7 +1034,7 @@
     <t>Alergia a allopurinol</t>
   </si>
   <si>
-    <t>L50</t>
+    <t>L71</t>
   </si>
   <si>
     <t>Allergy to allopurinol (finding)</t>
@@ -995,7 +1046,7 @@
     <t>Alergia a gentamicina</t>
   </si>
   <si>
-    <t>L51</t>
+    <t>L72</t>
   </si>
   <si>
     <t>Allergy to gentamicin (finding)</t>
@@ -1007,7 +1058,7 @@
     <t xml:space="preserve">Alergia a medios de contraste </t>
   </si>
   <si>
-    <t>L52</t>
+    <t>L73</t>
   </si>
   <si>
     <t>Allergy to contrast media (finding)</t>
@@ -1019,7 +1070,7 @@
     <t xml:space="preserve">Alergia a lidocaína </t>
   </si>
   <si>
-    <t>L53</t>
+    <t>L74</t>
   </si>
   <si>
     <t>Allergy to lidocaine (finding)</t>
@@ -1031,7 +1082,7 @@
     <t>Alergia a corticosteroides</t>
   </si>
   <si>
-    <t>L54</t>
+    <t>L75</t>
   </si>
   <si>
     <t>Allergy to corticosteroid and/or corticosteroid derivative (finding)</t>
@@ -1043,7 +1094,7 @@
     <t>Alergia a proteína de leche de vaca</t>
   </si>
   <si>
-    <t>L55</t>
+    <t>L76</t>
   </si>
   <si>
     <t>Allergy to cow's milk protein (finding)</t>
@@ -1055,7 +1106,7 @@
     <t>Alergia al Huevo</t>
   </si>
   <si>
-    <t>L56</t>
+    <t>L77</t>
   </si>
   <si>
     <t>Allergy to egg protein (finding)</t>
@@ -1067,7 +1118,7 @@
     <t>Alergia a betabloqueantes</t>
   </si>
   <si>
-    <t>L57</t>
+    <t>L78</t>
   </si>
   <si>
     <t>Allergy to beta adrenergic receptor antagonist (finding)</t>
@@ -1079,7 +1130,7 @@
     <t>Alergia al gluten</t>
   </si>
   <si>
-    <t>L58</t>
+    <t>L79</t>
   </si>
   <si>
     <t>Allergy to gluten (finding)</t>
@@ -1091,7 +1142,7 @@
     <t xml:space="preserve">Alergia a propofol </t>
   </si>
   <si>
-    <t>L59</t>
+    <t>L80</t>
   </si>
   <si>
     <t>Allergy to propofol (finding)</t>
@@ -1106,6 +1157,9 @@
     <t>Metformina</t>
   </si>
   <si>
+    <t>L81</t>
+  </si>
+  <si>
     <t>Product containing metformin (medicinal product)</t>
   </si>
   <si>
@@ -1115,6 +1169,9 @@
     <t>Enalapril</t>
   </si>
   <si>
+    <t>L82</t>
+  </si>
+  <si>
     <t>Product containing enalapril (medicinal product)</t>
   </si>
   <si>
@@ -1124,6 +1181,9 @@
     <t>Levotiroxina</t>
   </si>
   <si>
+    <t>L83</t>
+  </si>
+  <si>
     <t>Product containing levothyroxine (medicinal product)</t>
   </si>
   <si>
@@ -1133,6 +1193,9 @@
     <t>Atorvastatina</t>
   </si>
   <si>
+    <t>L84</t>
+  </si>
+  <si>
     <t>Product containing atorvastatin (medicinal product)</t>
   </si>
   <si>
@@ -1142,6 +1205,9 @@
     <t>Insulina glargina</t>
   </si>
   <si>
+    <t>L85</t>
+  </si>
+  <si>
     <t>Product containing insulin glargine (medicinal product)</t>
   </si>
   <si>
@@ -1151,6 +1217,9 @@
     <t>Salbutamol</t>
   </si>
   <si>
+    <t>L86</t>
+  </si>
+  <si>
     <t>Product containing salbutamol (medicinal product)</t>
   </si>
   <si>
@@ -1160,6 +1229,9 @@
     <t>Omperazol</t>
   </si>
   <si>
+    <t>L87</t>
+  </si>
+  <si>
     <t>Product containing omeprazole (medicinal product)</t>
   </si>
   <si>
@@ -1169,6 +1241,9 @@
     <t xml:space="preserve">Warfarina </t>
   </si>
   <si>
+    <t>L88</t>
+  </si>
+  <si>
     <t>Product containing warfarin (medicinal product)</t>
   </si>
   <si>
@@ -1178,6 +1253,9 @@
     <t xml:space="preserve">Prednisona </t>
   </si>
   <si>
+    <t>L89</t>
+  </si>
+  <si>
     <t>Product containing prednisone (medicinal product)</t>
   </si>
   <si>
@@ -1187,6 +1265,9 @@
     <t>Pregabalina</t>
   </si>
   <si>
+    <t>L90</t>
+  </si>
+  <si>
     <t>Product containing pregabalin (medicinal product)</t>
   </si>
   <si>
@@ -1196,7 +1277,7 @@
     <t>Morfina</t>
   </si>
   <si>
-    <t>L60</t>
+    <t>L91</t>
   </si>
   <si>
     <t>Product containing morphine (medicinal product)</t>
@@ -1208,7 +1289,7 @@
     <t xml:space="preserve">Salbutamol </t>
   </si>
   <si>
-    <t>L61</t>
+    <t>L92</t>
   </si>
   <si>
     <t>M13</t>
@@ -1217,7 +1298,7 @@
     <t>Loratadina</t>
   </si>
   <si>
-    <t>L62</t>
+    <t>L93</t>
   </si>
   <si>
     <t>Product containing loratadine (medicinal product)</t>
@@ -1229,7 +1310,7 @@
     <t xml:space="preserve">Atenolol </t>
   </si>
   <si>
-    <t>L63</t>
+    <t>L94</t>
   </si>
   <si>
     <t>Product containing atenolol (medicinal product)</t>
@@ -1241,7 +1322,7 @@
     <t>Carbamazepina</t>
   </si>
   <si>
-    <t>L64</t>
+    <t>L95</t>
   </si>
   <si>
     <t>Product containing carbamazepine (medicinal product)</t>
@@ -1253,7 +1334,7 @@
     <t>Ranitidina</t>
   </si>
   <si>
-    <t>L65</t>
+    <t>L96</t>
   </si>
   <si>
     <t>Product containing ranitidine (medicinal product)</t>
@@ -1265,7 +1346,7 @@
     <t xml:space="preserve">Allopurinol </t>
   </si>
   <si>
-    <t>L66</t>
+    <t>L97</t>
   </si>
   <si>
     <t>Product containing allopurinol (medicinal product)</t>
@@ -1277,7 +1358,7 @@
     <t xml:space="preserve">Losartán </t>
   </si>
   <si>
-    <t>L67</t>
+    <t>L98</t>
   </si>
   <si>
     <t>Product containing losartan (medicinal product)</t>
@@ -1289,7 +1370,7 @@
     <t>Rivastigmina</t>
   </si>
   <si>
-    <t>L68</t>
+    <t>L99</t>
   </si>
   <si>
     <t>Product containing rivastigmine (medicinal product)</t>
@@ -1301,7 +1382,7 @@
     <t xml:space="preserve">Acido acetilsalicílico </t>
   </si>
   <si>
-    <t>L69</t>
+    <t>L100</t>
   </si>
   <si>
     <t>Product containing aspirin (medicinal product)</t>
@@ -1316,6 +1397,9 @@
     <t>Radiografía de Torax</t>
   </si>
   <si>
+    <t>L101</t>
+  </si>
+  <si>
     <t>Standard chest X-ray (procedure)</t>
   </si>
   <si>
@@ -1325,6 +1409,9 @@
     <t xml:space="preserve">Ecografía abdominal </t>
   </si>
   <si>
+    <t>L102</t>
+  </si>
+  <si>
     <t>Ultrasound scan of abdominal aorta (procedure)</t>
   </si>
   <si>
@@ -1334,6 +1421,9 @@
     <t>Colonoscopía</t>
   </si>
   <si>
+    <t>L103</t>
+  </si>
+  <si>
     <t>Colonoscopy (procedure)</t>
   </si>
   <si>
@@ -1343,6 +1433,9 @@
     <t>Resonancia Nuclear Magnética</t>
   </si>
   <si>
+    <t>L104</t>
+  </si>
+  <si>
     <t>Magnetic resonance imaging (procedure)</t>
   </si>
   <si>
@@ -1352,6 +1445,9 @@
     <t xml:space="preserve">Hemodiálisis </t>
   </si>
   <si>
+    <t>L105</t>
+  </si>
+  <si>
     <t>Hemodialysis (procedure)</t>
   </si>
   <si>
@@ -1361,6 +1457,9 @@
     <t>Electrocardiograma</t>
   </si>
   <si>
+    <t>L106</t>
+  </si>
+  <si>
     <t>12 lead electrocardiogram (procedure)</t>
   </si>
   <si>
@@ -1370,6 +1469,9 @@
     <t>Espirometría</t>
   </si>
   <si>
+    <t>L107</t>
+  </si>
+  <si>
     <t>Spirometry (procedure)</t>
   </si>
   <si>
@@ -1379,6 +1481,9 @@
     <t>Atroscopía</t>
   </si>
   <si>
+    <t>L108</t>
+  </si>
+  <si>
     <t>Arthroscopy (procedure)</t>
   </si>
   <si>
@@ -1388,6 +1493,9 @@
     <t xml:space="preserve">Evaluación de la marcha </t>
   </si>
   <si>
+    <t>L109</t>
+  </si>
+  <si>
     <t>Gait evaluation (regime/therapy)</t>
   </si>
   <si>
@@ -1397,6 +1505,9 @@
     <t>Cateterismo cardíaco</t>
   </si>
   <si>
+    <t>L110</t>
+  </si>
+  <si>
     <t>Cardiac catheterization (procedure)</t>
   </si>
   <si>
@@ -1406,7 +1517,7 @@
     <t>Radioterápia (terapia de radiación)</t>
   </si>
   <si>
-    <t>L70</t>
+    <t>L111</t>
   </si>
   <si>
     <t>Radiotherapy (procedure)</t>
@@ -1418,7 +1529,7 @@
     <t>Fisioterápia (terapia física de rehabilitación)</t>
   </si>
   <si>
-    <t>L71</t>
+    <t>L112</t>
   </si>
   <si>
     <t>Rehabilitation therapy (regime/therapy)</t>
@@ -1430,7 +1541,7 @@
     <t xml:space="preserve">Angiografía </t>
   </si>
   <si>
-    <t>L72</t>
+    <t>L113</t>
   </si>
   <si>
     <t>Angiography (procedure)</t>
@@ -1442,7 +1553,7 @@
     <t xml:space="preserve">Biopsia </t>
   </si>
   <si>
-    <t>L73</t>
+    <t>L114</t>
   </si>
   <si>
     <t>Biopsy (procedure)</t>
@@ -1454,7 +1565,7 @@
     <t>Cirugía Laparoscópica</t>
   </si>
   <si>
-    <t>L74</t>
+    <t>L115</t>
   </si>
   <si>
     <t>Laparoscopy (procedure)</t>
@@ -1466,7 +1577,7 @@
     <t>Toma de tensión arterial sistémica</t>
   </si>
   <si>
-    <t>L75</t>
+    <t>L116</t>
   </si>
   <si>
     <t>Blood pressure taking (procedure)</t>
@@ -1478,7 +1589,7 @@
     <t>Drenaje de absceso</t>
   </si>
   <si>
-    <t>L76</t>
+    <t>L117</t>
   </si>
   <si>
     <t>Drainage of abscess (procedure)</t>
@@ -1490,7 +1601,7 @@
     <t>Flebectomía</t>
   </si>
   <si>
-    <t>L77</t>
+    <t>L118</t>
   </si>
   <si>
     <t>Excision of vein (procedure)</t>
@@ -1502,7 +1613,7 @@
     <t>Impante de bomba de insulina</t>
   </si>
   <si>
-    <t>L78</t>
+    <t>L119</t>
   </si>
   <si>
     <t>Insertion of insulin pump (procedure)</t>
@@ -1514,7 +1625,7 @@
     <t>Hernioplastia</t>
   </si>
   <si>
-    <t>L79</t>
+    <t>L120</t>
   </si>
   <si>
     <t>Hernia repair (procedure)</t>
@@ -5279,13 +5390,13 @@
         <v>214</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>214</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>214</v>
@@ -5294,397 +5405,397 @@
         <v>2.8531000087107E13</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>219</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>218</v>
       </c>
       <c r="H5" s="14">
         <v>8.36402002E8</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H6" s="14">
         <v>8.71875004E8</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H7" s="14">
         <v>8.71717007E8</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="23" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H8" s="14">
         <v>8.36374004E8</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="23" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H9" s="14">
         <v>8.71831003E8</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="23" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H10" s="14">
         <v>8.36379009E8</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="23" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H11" s="14">
         <v>1.051000221104E12</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="23" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="H12" s="14">
         <v>8.36377006E8</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="23" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="H13" s="14">
         <v>8.36393002E8</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H14" s="14">
         <v>8.36398006E8</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="H15" s="14">
         <v>8.71740006E8</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="H16" s="14">
         <v>8.36401009E8</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="23" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H17" s="14">
         <v>8.36375003E8</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="23" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H18" s="14">
         <v>3.7146E7</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="23" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="H19" s="14">
         <v>8.71919004E8</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -6746,7 +6857,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>4</v>
@@ -6755,10 +6866,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>8</v>
@@ -6769,522 +6880,522 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H4" s="10">
         <v>4.14285001E8</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="23" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H5" s="14">
         <v>2.94505008E8</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="23" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H6" s="14">
         <v>2.93581006E8</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H7" s="14">
         <v>2.93619005E8</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="23" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H8" s="14">
         <v>1.003755004E9</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="23" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H9" s="14">
         <v>1.51201000119107E14</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="23" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H10" s="14">
         <v>2.93586001E8</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="23" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H11" s="14">
         <v>2.94532003E8</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="23" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H12" s="14">
         <v>9.1939003E7</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="23" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H13" s="14">
         <v>8.30259009E8</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H14" s="14">
         <v>2.94220003E8</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H15" s="14">
         <v>2.94469003E8</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H16" s="14">
         <v>2.93637006E8</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="23" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H17" s="14">
         <v>2.93722E8</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="23" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H18" s="14">
         <v>2.94677009E8</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="23" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H19" s="14">
         <v>7.82555009E8</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="23" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H20" s="14">
         <v>2.13020009E8</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="23" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H21" s="14">
         <v>2.93962009E8</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="23" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H22" s="14">
         <v>1.269425007E9</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="16" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H23" s="17">
         <v>2.93708E8</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -8305,7 +8416,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>4</v>
@@ -8314,10 +8425,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>8</v>
@@ -8328,522 +8439,522 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H4" s="10">
         <v>1.09081006E8</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="23" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H5" s="14">
         <v>1.5222008E7</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="23" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H6" s="14">
         <v>7.68532006E8</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H7" s="14">
         <v>1.08600003E8</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="23" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H8" s="14">
         <v>1.26212009E8</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="23" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H9" s="14">
         <v>9.1143003E7</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="23" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H10" s="14">
         <v>2.5673006E7</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="23" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H11" s="14">
         <v>4.8603004E7</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="23" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H12" s="14">
         <v>1.0312003E7</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="23" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H13" s="14">
         <v>4.15159003E8</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H14" s="14">
         <v>7.3572009E7</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H15" s="14">
         <v>9.1143003E7</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H16" s="14">
         <v>1.08652002E8</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="23" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H17" s="14">
         <v>8.7652004E7</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="23" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H18" s="14">
         <v>4.0820003E7</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="23" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H19" s="14">
         <v>4.8174005E7</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="23" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H20" s="14">
         <v>2.5246002E7</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="23" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H21" s="14">
         <v>9.6309E7</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="23" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H22" s="14">
         <v>3.23368009E8</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="16" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H23" s="17">
         <v>7947003.0</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -9864,7 +9975,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>4</v>
@@ -9873,10 +9984,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>8</v>
@@ -9887,522 +9998,522 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H4" s="10">
         <v>1.68731009E8</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="7" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H5" s="14">
         <v>2.41462009E8</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H6" s="14">
         <v>7.3761001E7</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H7" s="14">
         <v>1.13091E8</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>406</v>
+        <v>474</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H8" s="14">
         <v>3.02497006E8</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="7" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H9" s="14">
         <v>2.68400002E8</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="7" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H10" s="14">
         <v>1.27783003E8</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="7" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H11" s="14">
         <v>1.3714004E7</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H12" s="14">
         <v>3.9609006E7</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="7" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H13" s="14">
         <v>4.1976001E7</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="7" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H14" s="14">
         <v>1.287742003E9</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="B15" s="7" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H15" s="14">
         <v>5.2052004E7</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H16" s="14">
         <v>7.7343006E7</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="7" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H17" s="14">
         <v>8.6273004E7</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="7" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H18" s="14">
         <v>7.3632009E7</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="7" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H19" s="14">
         <v>4.6973005E7</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H20" s="14">
         <v>1.18442004E8</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="7" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H21" s="14">
         <v>6.0941001E7</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="7" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H22" s="14">
         <v>4.43263006E8</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="16" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H23" s="17">
         <v>5.0465008E7</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
